--- a/results/Results_synthese.xlsx
+++ b/results/Results_synthese.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Fe_" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="S_" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Boulliung_2023" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Bell_2025" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="synthese" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Fe_" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="S_" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Boulliung_2023" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Bell_2025" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="synthese" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <t xml:space="preserve">abbrev_copy</t>
+    <t xml:space="preserve">abbrev_save</t>
   </si>
   <si>
     <t xml:space="preserve">T_start_save</t>
@@ -3380,7 +3380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="173">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4025,32 +4025,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4061,19 +4041,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4099,10 +4071,6 @@
     </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4177,7 +4145,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4314,11 +4282,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48623479"/>
-        <c:axId val="12813688"/>
+        <c:axId val="42138641"/>
+        <c:axId val="29293511"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48623479"/>
+        <c:axId val="42138641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,12 +4314,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12813688"/>
+        <c:crossAx val="29293511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12813688"/>
+        <c:axId val="29293511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +4356,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48623479"/>
+        <c:crossAx val="42138641"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4447,9 +4415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>493920</xdr:colOff>
+      <xdr:colOff>492840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4458,7 +4426,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="19659600" y="1161000"/>
-        <a:ext cx="5787360" cy="3235680"/>
+        <a:ext cx="5786280" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4469,6 +4437,112 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7768,7 +7842,7 @@
   <dimension ref="A1:V403"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28568,7 +28642,7 @@
   </sheetPr>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -31505,1220 +31579,1222 @@
   <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3083" ySplit="0" topLeftCell="AB1" activePane="topRight" state="split"/>
+      <pane xSplit="1319" ySplit="0" topLeftCell="I1" activePane="topRight" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AP1" activeCellId="0" sqref="AP1"/>
+      <selection pane="topRight" activeCell="W12" activeCellId="0" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="23.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="11" width="11.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="161" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="11" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="11" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="162" t="s">
+    <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="G1" s="162" t="s">
+      <c r="G1" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="H1" s="162" t="s">
+      <c r="H1" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="I1" s="162" t="s">
+      <c r="I1" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="J1" s="162" t="s">
+      <c r="J1" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="K1" s="162" t="s">
+      <c r="K1" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="L1" s="162" t="s">
+      <c r="L1" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="M1" s="162" t="s">
+      <c r="M1" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="N1" s="162" t="s">
+      <c r="N1" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="O1" s="162" t="s">
+      <c r="O1" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="P1" s="162" t="s">
+      <c r="P1" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="Q1" s="162" t="s">
+      <c r="Q1" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="R1" s="162" t="s">
+      <c r="R1" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="S1" s="162" t="s">
+      <c r="S1" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="T1" s="162" t="s">
+      <c r="T1" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="U1" s="162" t="s">
+      <c r="U1" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="V1" s="162" t="s">
+      <c r="V1" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="W1" s="162" t="s">
+      <c r="W1" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="X1" s="162" t="s">
+      <c r="X1" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="Y1" s="162" t="s">
+      <c r="Y1" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="Z1" s="162" t="s">
+      <c r="Z1" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AB1" s="162" t="s">
+      <c r="AB1" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AC1" s="162" t="s">
+      <c r="AC1" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="AD1" s="162" t="s">
+      <c r="AD1" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="AE1" s="162" t="s">
+      <c r="AE1" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="AF1" s="162" t="s">
+      <c r="AF1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="AG1" s="162" t="s">
+      <c r="AG1" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="AH1" s="162" t="s">
+      <c r="AH1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="AI1" s="163" t="s">
+      <c r="AI1" s="150" t="s">
         <v>986</v>
       </c>
-      <c r="AJ1" s="164" t="s">
+      <c r="AJ1" s="162" t="s">
         <v>987</v>
       </c>
-      <c r="AK1" s="162" t="s">
+      <c r="AK1" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="AL1" s="162" t="s">
+      <c r="AL1" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="AM1" s="162" t="s">
+      <c r="AM1" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="AN1" s="162" t="s">
+      <c r="AN1" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="AO1" s="165" t="s">
+      <c r="AO1" s="141" t="s">
         <v>992</v>
       </c>
-      <c r="AP1" s="165" t="s">
+      <c r="AP1" s="141" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="2" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="163" t="s">
+    <row r="2" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="150" t="s">
         <v>928</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C2" s="167" t="n">
+      <c r="C2" s="152" t="n">
         <v>51.1889582257819</v>
       </c>
-      <c r="D2" s="167" t="n">
+      <c r="D2" s="152" t="n">
         <v>2.71920779154541</v>
       </c>
-      <c r="E2" s="167" t="n">
+      <c r="E2" s="152" t="n">
         <v>16.8199754994449</v>
       </c>
-      <c r="F2" s="167" t="n">
+      <c r="F2" s="152" t="n">
         <v>9.85507445492476</v>
       </c>
-      <c r="G2" s="167" t="n">
+      <c r="G2" s="152" t="n">
         <v>0.231257160032213</v>
       </c>
-      <c r="H2" s="167" t="n">
+      <c r="H2" s="152" t="n">
         <v>3.22872636448312</v>
       </c>
-      <c r="I2" s="167" t="n">
+      <c r="I2" s="152" t="n">
         <v>6.7815232916189</v>
       </c>
-      <c r="J2" s="167" t="n">
+      <c r="J2" s="152" t="n">
         <v>4.96213405142407</v>
       </c>
-      <c r="K2" s="167" t="n">
+      <c r="K2" s="152" t="n">
         <v>2.97582560452927</v>
       </c>
-      <c r="L2" s="167" t="n">
+      <c r="L2" s="152" t="n">
         <v>1.22653339729801</v>
       </c>
-      <c r="M2" s="167" t="n">
+      <c r="M2" s="152" t="n">
         <v>1.148</v>
       </c>
-      <c r="N2" s="167" t="n">
+      <c r="N2" s="152" t="n">
         <v>985.05</v>
       </c>
-      <c r="O2" s="167" t="n">
+      <c r="O2" s="152" t="n">
         <v>82</v>
       </c>
-      <c r="P2" s="167" t="n">
+      <c r="P2" s="152" t="n">
         <v>1568.7</v>
       </c>
-      <c r="Q2" s="167" t="n">
+      <c r="Q2" s="152" t="n">
         <v>352</v>
       </c>
-      <c r="R2" s="167" t="n">
+      <c r="R2" s="152" t="n">
         <v>717.9</v>
       </c>
-      <c r="S2" s="167" t="n">
+      <c r="S2" s="152" t="n">
         <v>71</v>
       </c>
-      <c r="T2" s="167" t="n">
+      <c r="T2" s="152" t="n">
         <v>36.8815147216104</v>
       </c>
-      <c r="U2" s="167" t="n">
+      <c r="U2" s="152" t="n">
         <v>0.22</v>
       </c>
-      <c r="V2" s="167" t="n">
+      <c r="V2" s="152" t="n">
         <f aca="false">U2/(1-U2)</f>
         <v>0.282051282051282</v>
       </c>
-      <c r="W2" s="167" t="n">
+      <c r="W2" s="152" t="n">
         <v>0.04</v>
       </c>
-      <c r="X2" s="168" t="n">
+      <c r="X2" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="169" t="n">
+      <c r="Y2" s="164" t="n">
         <v>0.00196078431372548</v>
       </c>
-      <c r="Z2" s="169" t="n">
+      <c r="Z2" s="164" t="n">
         <v>0.709281307605853</v>
       </c>
-      <c r="AA2" s="169" t="n">
+      <c r="AA2" s="164" t="n">
         <v>0.923289106105489</v>
       </c>
-      <c r="AB2" s="162" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="162" t="n">
+      <c r="AB2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="n">
         <v>1058</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="AF2" s="162" t="n">
+      <c r="AF2" s="1" t="n">
         <v>1058</v>
       </c>
-      <c r="AG2" s="167" t="n">
+      <c r="AG2" s="152" t="n">
         <v>1.148</v>
       </c>
-      <c r="AH2" s="167" t="n">
+      <c r="AH2" s="152" t="n">
         <v>0.04</v>
       </c>
-      <c r="AI2" s="170" t="n">
+      <c r="AI2" s="147" t="n">
         <v>-9.775</v>
       </c>
-      <c r="AJ2" s="171" t="n">
+      <c r="AJ2" s="165" t="n">
         <f aca="false">-25096.3/(AC2+273) + 8.735 + 0.11*(350-1)/(AC2+273)</f>
         <v>-10.0913786626597</v>
       </c>
-      <c r="AK2" s="167" t="n">
+      <c r="AK2" s="152" t="n">
         <f aca="false">AI2-AJ2</f>
         <v>0.316378662659654</v>
       </c>
-      <c r="AL2" s="167" t="n">
+      <c r="AL2" s="152" t="n">
         <f aca="false">8*LOG10(V2)+8.7436*1000000/(AC2*AC2)-27703/AC2+20.273</f>
         <v>-2.49746402171347</v>
       </c>
-      <c r="AM2" s="167" t="n">
+      <c r="AM2" s="152" t="n">
         <f aca="false">10^(AL2)/(1+10^(AL2))</f>
         <v>0.00317071179326225</v>
       </c>
-      <c r="AN2" s="167" t="n">
+      <c r="AN2" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK2))</f>
         <v>0.0329757506162649</v>
       </c>
-      <c r="AO2" s="172" t="n">
+      <c r="AO2" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP2" s="165" t="n">
+      <c r="AP2" s="141" t="n">
         <v>0.294</v>
       </c>
     </row>
-    <row r="3" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="163" t="s">
+    <row r="3" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="150" t="s">
         <v>929</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C3" s="167" t="n">
+      <c r="C3" s="152" t="n">
         <v>50.4803475553549</v>
       </c>
-      <c r="D3" s="167" t="n">
+      <c r="D3" s="152" t="n">
         <v>2.721188124509</v>
       </c>
-      <c r="E3" s="167" t="n">
+      <c r="E3" s="152" t="n">
         <v>16.4196702554185</v>
       </c>
-      <c r="F3" s="167" t="n">
+      <c r="F3" s="152" t="n">
         <v>10.4305105068557</v>
       </c>
-      <c r="G3" s="167" t="n">
+      <c r="G3" s="152" t="n">
         <v>0.22326078729</v>
       </c>
-      <c r="H3" s="167" t="n">
+      <c r="H3" s="152" t="n">
         <v>3.33273619119146</v>
       </c>
-      <c r="I3" s="167" t="n">
+      <c r="I3" s="152" t="n">
         <v>6.86969085527003</v>
       </c>
-      <c r="J3" s="167" t="n">
+      <c r="J3" s="152" t="n">
         <v>5.04261183556423</v>
       </c>
-      <c r="K3" s="167" t="n">
+      <c r="K3" s="152" t="n">
         <v>2.94006090021921</v>
       </c>
-      <c r="L3" s="167" t="n">
+      <c r="L3" s="152" t="n">
         <v>1.49259662758542</v>
       </c>
-      <c r="M3" s="167" t="n">
+      <c r="M3" s="152" t="n">
         <v>0.961</v>
       </c>
-      <c r="N3" s="167" t="n">
+      <c r="N3" s="152" t="n">
         <v>869.052631578947</v>
       </c>
-      <c r="O3" s="167" t="n">
+      <c r="O3" s="152" t="n">
         <v>72</v>
       </c>
-      <c r="P3" s="167" t="n">
+      <c r="P3" s="152" t="n">
         <v>1830.31578947368</v>
       </c>
-      <c r="Q3" s="167" t="n">
+      <c r="Q3" s="152" t="n">
         <v>355</v>
       </c>
-      <c r="R3" s="167" t="n">
+      <c r="R3" s="152" t="n">
         <v>956.736842105263</v>
       </c>
-      <c r="S3" s="167" t="n">
+      <c r="S3" s="152" t="n">
         <v>132</v>
       </c>
-      <c r="T3" s="167" t="n">
+      <c r="T3" s="152" t="n">
         <f aca="false">(H3/40.304)/(H3/40.34+F3/71.846)*100</f>
         <v>36.3001826231904</v>
       </c>
-      <c r="U3" s="167" t="n">
+      <c r="U3" s="152" t="n">
         <v>0.21</v>
       </c>
-      <c r="V3" s="167" t="n">
+      <c r="V3" s="152" t="n">
         <f aca="false">U3/(1-U3)</f>
         <v>0.265822784810127</v>
       </c>
-      <c r="W3" s="167" t="n">
+      <c r="W3" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="X3" s="168" t="n">
+      <c r="X3" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y3" s="169" t="n">
+      <c r="Y3" s="164" t="n">
         <v>0.170588235294118</v>
       </c>
-      <c r="Z3" s="169" t="n">
+      <c r="Z3" s="164" t="n">
         <v>0.494655843399779</v>
       </c>
-      <c r="AA3" s="169" t="n">
+      <c r="AA3" s="164" t="n">
         <v>0.966718404269187</v>
       </c>
-      <c r="AB3" s="162" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="162" t="n">
+      <c r="AB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="n">
         <v>1133</v>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162" t="s">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AF3" s="162" t="n">
+      <c r="AF3" s="1" t="n">
         <v>1133</v>
       </c>
-      <c r="AG3" s="167" t="n">
+      <c r="AG3" s="152" t="n">
         <v>0.961</v>
       </c>
-      <c r="AH3" s="167" t="n">
+      <c r="AH3" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI3" s="170" t="n">
+      <c r="AI3" s="147" t="n">
         <v>-8.99</v>
       </c>
-      <c r="AJ3" s="171" t="n">
+      <c r="AJ3" s="165" t="n">
         <f aca="false">-25096.3/(AC3+273) + 8.735 + 0.11*(350-1)/(AC3+273)</f>
         <v>-9.0871266002845</v>
       </c>
-      <c r="AK3" s="167" t="n">
+      <c r="AK3" s="152" t="n">
         <f aca="false">AI3-AJ3</f>
         <v>0.0971266002844953</v>
       </c>
-      <c r="AL3" s="167" t="n">
+      <c r="AL3" s="152" t="n">
         <f aca="false">8*LOG10(V3)+8.7436*1000000/(AC3*AC3)-27703/AC3+20.273</f>
         <v>-1.96997027678103</v>
       </c>
-      <c r="AM3" s="167" t="n">
+      <c r="AM3" s="152" t="n">
         <f aca="false">10^(AL3)/(1+10^(AL3))</f>
         <v>0.0106023128236821</v>
       </c>
-      <c r="AN3" s="167" t="n">
+      <c r="AN3" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK3))</f>
         <v>0.012271308374523</v>
       </c>
-      <c r="AO3" s="172" t="n">
+      <c r="AO3" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP3" s="165" t="n">
+      <c r="AP3" s="141" t="n">
         <v>0.301</v>
       </c>
     </row>
-    <row r="4" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="162" t="s">
+    <row r="4" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C4" s="167" t="n">
+      <c r="C4" s="152" t="n">
         <v>44.7185194136532</v>
       </c>
-      <c r="D4" s="167" t="n">
+      <c r="D4" s="152" t="n">
         <v>3.86486306284188</v>
       </c>
-      <c r="E4" s="167" t="n">
+      <c r="E4" s="152" t="n">
         <v>14.0872647132555</v>
       </c>
-      <c r="F4" s="167" t="n">
+      <c r="F4" s="152" t="n">
         <v>12.8835407038012</v>
       </c>
-      <c r="G4" s="167" t="n">
+      <c r="G4" s="152" t="n">
         <v>0.231282867933053</v>
       </c>
-      <c r="H4" s="167" t="n">
+      <c r="H4" s="152" t="n">
         <v>4.70741171815673</v>
       </c>
-      <c r="I4" s="167" t="n">
+      <c r="I4" s="152" t="n">
         <v>10.1688865196437</v>
       </c>
-      <c r="J4" s="167" t="n">
+      <c r="J4" s="152" t="n">
         <v>4.68235089627488</v>
       </c>
-      <c r="K4" s="167" t="n">
+      <c r="K4" s="152" t="n">
         <v>2.70665638849022</v>
       </c>
-      <c r="L4" s="167" t="n">
+      <c r="L4" s="152" t="n">
         <v>1.93265457751525</v>
       </c>
-      <c r="M4" s="167" t="n">
+      <c r="M4" s="152" t="n">
         <v>1.03</v>
       </c>
-      <c r="N4" s="167" t="n">
+      <c r="N4" s="152" t="n">
         <v>1218.05</v>
       </c>
-      <c r="O4" s="167" t="n">
+      <c r="O4" s="152" t="n">
         <v>99</v>
       </c>
-      <c r="P4" s="167" t="n">
+      <c r="P4" s="152" t="n">
         <v>1898.45</v>
       </c>
-      <c r="Q4" s="167" t="n">
+      <c r="Q4" s="152" t="n">
         <v>528</v>
       </c>
-      <c r="R4" s="167" t="n">
+      <c r="R4" s="152" t="n">
         <v>1573.2</v>
       </c>
-      <c r="S4" s="167" t="n">
+      <c r="S4" s="152" t="n">
         <v>127</v>
       </c>
-      <c r="T4" s="167" t="n">
+      <c r="T4" s="152" t="n">
         <f aca="false">(H4/40.304)/(H4/40.34+F4/71.846)*100</f>
         <v>39.4566578285157</v>
       </c>
-      <c r="U4" s="167" t="n">
+      <c r="U4" s="152" t="n">
         <v>0.24</v>
       </c>
-      <c r="V4" s="167" t="n">
+      <c r="V4" s="152" t="n">
         <f aca="false">U4/(1-U4)</f>
         <v>0.315789473684211</v>
       </c>
-      <c r="W4" s="167" t="n">
+      <c r="W4" s="152" t="n">
         <v>0.05</v>
       </c>
-      <c r="X4" s="168" t="n">
+      <c r="X4" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="169" t="n">
+      <c r="Y4" s="164" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z4" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="169" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="162" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="162" t="n">
+      <c r="Z4" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="n">
         <v>1106</v>
       </c>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162" t="s">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="AF4" s="162" t="n">
+      <c r="AF4" s="1" t="n">
         <v>1106</v>
       </c>
-      <c r="AG4" s="167" t="n">
+      <c r="AG4" s="152" t="n">
         <v>1.03</v>
       </c>
-      <c r="AH4" s="167" t="n">
+      <c r="AH4" s="152" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI4" s="173" t="n">
+      <c r="AI4" s="161" t="n">
         <v>-9.13</v>
       </c>
-      <c r="AJ4" s="171" t="n">
+      <c r="AJ4" s="165" t="n">
         <f aca="false">-25096.3/(AC4+273) + 8.735 + 0.11*(350-1)/(AC4+273)</f>
         <v>-9.43607324147933</v>
       </c>
-      <c r="AK4" s="167" t="n">
+      <c r="AK4" s="152" t="n">
         <f aca="false">AI4-AJ4</f>
         <v>0.306073241479332</v>
       </c>
-      <c r="AL4" s="167" t="n">
+      <c r="AL4" s="152" t="n">
         <f aca="false">8*LOG10(V4)+8.7436*1000000/(AC4*AC4)-27703/AC4+20.273</f>
         <v>-1.63181357252957</v>
       </c>
-      <c r="AM4" s="167" t="n">
+      <c r="AM4" s="152" t="n">
         <f aca="false">10^(AL4)/(1+10^(AL4))</f>
         <v>0.0228120610652401</v>
       </c>
-      <c r="AN4" s="167" t="n">
+      <c r="AN4" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK4))</f>
         <v>0.031495473212259</v>
       </c>
-      <c r="AO4" s="172" t="n">
+      <c r="AO4" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP4" s="165" t="n">
+      <c r="AP4" s="141" t="n">
         <v>0.244</v>
       </c>
     </row>
-    <row r="5" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="165" t="s">
+    <row r="5" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="141" t="s">
         <v>994</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C5" s="167" t="n">
+      <c r="C5" s="152" t="n">
         <v>48.0196969080104</v>
       </c>
-      <c r="D5" s="167" t="n">
+      <c r="D5" s="152" t="n">
         <v>2.88896113008189</v>
       </c>
-      <c r="E5" s="167" t="n">
+      <c r="E5" s="152" t="n">
         <v>15.5899824106702</v>
       </c>
-      <c r="F5" s="167" t="n">
+      <c r="F5" s="152" t="n">
         <v>11.5105227013127</v>
       </c>
-      <c r="G5" s="167" t="n">
+      <c r="G5" s="152" t="n">
         <v>0.237469385038922</v>
       </c>
-      <c r="H5" s="167" t="n">
+      <c r="H5" s="152" t="n">
         <v>3.75856965744517</v>
       </c>
-      <c r="I5" s="167" t="n">
+      <c r="I5" s="152" t="n">
         <v>8.55150185100261</v>
       </c>
-      <c r="J5" s="167" t="n">
+      <c r="J5" s="152" t="n">
         <v>5.16253338428335</v>
       </c>
-      <c r="K5" s="167" t="n">
+      <c r="K5" s="152" t="n">
         <v>2.9929037150045</v>
       </c>
-      <c r="L5" s="167" t="n">
+      <c r="L5" s="152" t="n">
         <v>1.25535032030105</v>
       </c>
-      <c r="M5" s="167" t="n">
+      <c r="M5" s="152" t="n">
         <v>1.2576</v>
       </c>
-      <c r="N5" s="167" t="n">
+      <c r="N5" s="152" t="n">
         <v>1061.05</v>
       </c>
-      <c r="O5" s="167" t="n">
+      <c r="O5" s="152" t="n">
         <v>81</v>
       </c>
-      <c r="P5" s="167" t="n">
+      <c r="P5" s="152" t="n">
         <v>1726.45</v>
       </c>
-      <c r="Q5" s="167" t="n">
+      <c r="Q5" s="152" t="n">
         <v>267</v>
       </c>
-      <c r="R5" s="167" t="n">
+      <c r="R5" s="152" t="n">
         <v>1289.1</v>
       </c>
-      <c r="S5" s="167" t="n">
+      <c r="S5" s="152" t="n">
         <v>93</v>
       </c>
-      <c r="T5" s="167" t="n">
+      <c r="T5" s="152" t="n">
         <f aca="false">(H5/40.304)/(H5/40.34+F5/71.846)*100</f>
         <v>36.8041191765973</v>
       </c>
-      <c r="U5" s="167" t="n">
+      <c r="U5" s="152" t="n">
         <v>0.3</v>
       </c>
-      <c r="V5" s="167" t="n">
+      <c r="V5" s="152" t="n">
         <f aca="false">U5/(1-U5)</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="W5" s="167" t="n">
+      <c r="W5" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="X5" s="168" t="n">
+      <c r="X5" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y5" s="169" t="n">
+      <c r="Y5" s="164" t="n">
         <v>0.335294117647059</v>
       </c>
-      <c r="Z5" s="169" t="n">
+      <c r="Z5" s="164" t="n">
         <v>0.255842777594436</v>
       </c>
-      <c r="AA5" s="169" t="n">
+      <c r="AA5" s="164" t="n">
         <v>0.991644695510743</v>
       </c>
-      <c r="AB5" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="165" t="n">
+      <c r="AB5" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="141" t="n">
         <v>1069</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="162" t="s">
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="AF5" s="165" t="n">
+      <c r="AF5" s="141" t="n">
         <v>1069</v>
       </c>
-      <c r="AG5" s="167" t="n">
+      <c r="AG5" s="152" t="n">
         <v>1.2576</v>
       </c>
-      <c r="AH5" s="167" t="n">
+      <c r="AH5" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI5" s="170" t="n">
+      <c r="AI5" s="147" t="n">
         <v>-9.73</v>
       </c>
-      <c r="AJ5" s="171" t="n">
+      <c r="AJ5" s="165" t="n">
         <f aca="false">-25096.3/(AC5+273) + 8.735 + 0.11*(350-1)/(AC5+273)</f>
         <v>-9.93706408345753</v>
       </c>
-      <c r="AK5" s="167" t="n">
+      <c r="AK5" s="152" t="n">
         <f aca="false">AI5-AJ5</f>
         <v>0.207064083457524</v>
       </c>
-      <c r="AL5" s="167" t="n">
+      <c r="AL5" s="152" t="n">
         <f aca="false">8*LOG10(V5)+8.7436*1000000/(AC5*AC5)-27703/AC5+20.273</f>
         <v>-0.934394331028351</v>
       </c>
-      <c r="AM5" s="167" t="n">
+      <c r="AM5" s="152" t="n">
         <f aca="false">10^(AL5)/(1+10^(AL5))</f>
         <v>0.104189040888781</v>
       </c>
-      <c r="AN5" s="167" t="n">
+      <c r="AN5" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK5))</f>
         <v>0.0201960917202317</v>
       </c>
-      <c r="AO5" s="172" t="n">
+      <c r="AO5" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP5" s="165" t="n">
+      <c r="AP5" s="141" t="n">
         <v>0.269</v>
       </c>
     </row>
-    <row r="6" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="162" t="s">
+    <row r="6" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C6" s="167" t="n">
+      <c r="C6" s="152" t="n">
         <v>59.2023453450057</v>
       </c>
-      <c r="D6" s="167" t="n">
+      <c r="D6" s="152" t="n">
         <v>0.0490055792393535</v>
       </c>
-      <c r="E6" s="167" t="n">
+      <c r="E6" s="152" t="n">
         <v>19.4883557922493</v>
       </c>
-      <c r="F6" s="167" t="n">
+      <c r="F6" s="152" t="n">
         <v>5.05215895485532</v>
       </c>
-      <c r="G6" s="167" t="n">
+      <c r="G6" s="152" t="n">
         <v>0.23296450891712</v>
       </c>
-      <c r="H6" s="167" t="n">
+      <c r="H6" s="152" t="n">
         <v>0.0578136032565171</v>
       </c>
-      <c r="I6" s="167" t="n">
+      <c r="I6" s="152" t="n">
         <v>1.08898082199571</v>
       </c>
-      <c r="J6" s="167" t="n">
+      <c r="J6" s="152" t="n">
         <v>8.86351971936296</v>
       </c>
-      <c r="K6" s="167" t="n">
+      <c r="K6" s="152" t="n">
         <v>5.90181906814608</v>
       </c>
-      <c r="L6" s="167" t="n">
+      <c r="L6" s="152" t="n">
         <v>0.0630366069719579</v>
       </c>
-      <c r="M6" s="167" t="n">
+      <c r="M6" s="152" t="n">
         <v>1.27</v>
       </c>
-      <c r="N6" s="167" t="n">
+      <c r="N6" s="152" t="n">
         <v>50</v>
       </c>
-      <c r="O6" s="167" t="n">
+      <c r="O6" s="152" t="n">
         <v>35</v>
       </c>
-      <c r="P6" s="167" t="n">
+      <c r="P6" s="152" t="n">
         <v>2234</v>
       </c>
-      <c r="Q6" s="167" t="n">
+      <c r="Q6" s="152" t="n">
         <v>187</v>
       </c>
-      <c r="R6" s="167" t="n">
+      <c r="R6" s="152" t="n">
         <v>2301.2</v>
       </c>
-      <c r="S6" s="167" t="n">
+      <c r="S6" s="152" t="n">
         <v>92</v>
       </c>
-      <c r="T6" s="167" t="n">
+      <c r="T6" s="152" t="n">
         <f aca="false">(H6/40.304)/(H6/40.34+F6/71.846)*100</f>
         <v>1.99914929058057</v>
       </c>
-      <c r="U6" s="167" t="n">
+      <c r="U6" s="152" t="n">
         <v>0.37</v>
       </c>
-      <c r="V6" s="167" t="n">
+      <c r="V6" s="152" t="n">
         <f aca="false">U6/(1-U6)</f>
         <v>0.587301587301587</v>
       </c>
-      <c r="W6" s="167" t="n">
+      <c r="W6" s="152" t="n">
         <v>0.17</v>
       </c>
-      <c r="X6" s="168" t="n">
+      <c r="X6" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="169" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="169" t="n">
+      <c r="Y6" s="164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="164" t="n">
         <v>1.22464679914735E-016</v>
       </c>
-      <c r="AA6" s="169" t="n">
+      <c r="AA6" s="164" t="n">
         <v>6.12323399573677E-017</v>
       </c>
-      <c r="AB6" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="165" t="n">
+      <c r="AB6" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="141" t="n">
         <v>939</v>
       </c>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="162" t="s">
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="AF6" s="165" t="n">
+      <c r="AF6" s="141" t="n">
         <v>939</v>
       </c>
-      <c r="AG6" s="167" t="n">
+      <c r="AG6" s="152" t="n">
         <v>1.27</v>
       </c>
-      <c r="AH6" s="167" t="n">
+      <c r="AH6" s="152" t="n">
         <v>0.17</v>
       </c>
-      <c r="AI6" s="170" t="n">
+      <c r="AI6" s="147" t="n">
         <v>-11.175</v>
       </c>
-      <c r="AJ6" s="171" t="n">
+      <c r="AJ6" s="165" t="n">
         <f aca="false">-25096.3/(AC6+273) + 8.735 + 0.11*(350-1)/(AC6+273)</f>
         <v>-11.9398432343234</v>
       </c>
-      <c r="AK6" s="167" t="n">
+      <c r="AK6" s="152" t="n">
         <f aca="false">AI6-AJ6</f>
         <v>0.764843234323433</v>
       </c>
-      <c r="AL6" s="167" t="n">
+      <c r="AL6" s="152" t="n">
         <f aca="false">8*LOG10(V6)+8.7436*1000000/(AC6*AC6)-27703/AC6+20.273</f>
         <v>-1.16225746814411</v>
       </c>
-      <c r="AM6" s="167" t="n">
+      <c r="AM6" s="152" t="n">
         <f aca="false">10^(AL6)/(1+10^(AL6))</f>
         <v>0.0643926303638699</v>
       </c>
-      <c r="AN6" s="167" t="n">
+      <c r="AN6" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK6))</f>
         <v>0.211952623373834</v>
       </c>
-      <c r="AO6" s="172" t="n">
+      <c r="AO6" s="166" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="165"/>
-    </row>
-    <row r="7" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="162" t="s">
+      <c r="AP6" s="141"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C7" s="167" t="n">
+      <c r="C7" s="152" t="n">
         <v>59.8456780064365</v>
       </c>
-      <c r="D7" s="167" t="n">
+      <c r="D7" s="152" t="n">
         <v>0.240862041112196</v>
       </c>
-      <c r="E7" s="167" t="n">
+      <c r="E7" s="152" t="n">
         <v>18.5890110969559</v>
       </c>
-      <c r="F7" s="167" t="n">
+      <c r="F7" s="152" t="n">
         <v>5.55907536838388</v>
       </c>
-      <c r="G7" s="167" t="n">
+      <c r="G7" s="152" t="n">
         <v>0.246067563372057</v>
       </c>
-      <c r="H7" s="167" t="n">
+      <c r="H7" s="152" t="n">
         <v>0.288854720085568</v>
       </c>
-      <c r="I7" s="167" t="n">
+      <c r="I7" s="152" t="n">
         <v>1.3637391601832</v>
       </c>
-      <c r="J7" s="167" t="n">
+      <c r="J7" s="152" t="n">
         <v>7.62348527895284</v>
       </c>
-      <c r="K7" s="167" t="n">
+      <c r="K7" s="152" t="n">
         <v>6.01892548992682</v>
       </c>
-      <c r="L7" s="167" t="n">
+      <c r="L7" s="152" t="n">
         <v>0.209065700689593</v>
       </c>
-      <c r="M7" s="167" t="n">
+      <c r="M7" s="152" t="n">
         <v>1.61</v>
       </c>
-      <c r="N7" s="167" t="n">
+      <c r="N7" s="152" t="n">
         <v>115.05</v>
       </c>
-      <c r="O7" s="167" t="n">
+      <c r="O7" s="152" t="n">
         <v>31</v>
       </c>
-      <c r="P7" s="167" t="n">
+      <c r="P7" s="152" t="n">
         <v>1678.75</v>
       </c>
-      <c r="Q7" s="167" t="n">
+      <c r="Q7" s="152" t="n">
         <v>274</v>
       </c>
-      <c r="R7" s="167" t="n">
+      <c r="R7" s="152" t="n">
         <v>1492.25</v>
       </c>
-      <c r="S7" s="167" t="n">
+      <c r="S7" s="152" t="n">
         <v>77</v>
       </c>
-      <c r="T7" s="167" t="n">
+      <c r="T7" s="152" t="n">
         <f aca="false">(H7/40.304)/(H7/40.34+F7/71.846)*100</f>
         <v>8.47798821858523</v>
       </c>
-      <c r="U7" s="167" t="n">
+      <c r="U7" s="152" t="n">
         <v>0.26</v>
       </c>
-      <c r="V7" s="167" t="n">
+      <c r="V7" s="152" t="n">
         <f aca="false">U7/(1-U7)</f>
         <v>0.351351351351351</v>
       </c>
-      <c r="W7" s="167" t="n">
+      <c r="W7" s="152" t="n">
         <v>0.1</v>
       </c>
-      <c r="X7" s="168" t="n">
+      <c r="X7" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="169" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="169" t="n">
+      <c r="Y7" s="164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="164" t="n">
         <v>0.494655843399779</v>
       </c>
-      <c r="AA7" s="169" t="n">
+      <c r="AA7" s="164" t="n">
         <v>0.255842777594436</v>
       </c>
-      <c r="AB7" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="165" t="n">
+      <c r="AB7" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="141" t="n">
         <v>948</v>
       </c>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="162" t="s">
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="AF7" s="165" t="n">
+      <c r="AF7" s="141" t="n">
         <v>948</v>
       </c>
-      <c r="AG7" s="167" t="n">
+      <c r="AG7" s="152" t="n">
         <v>1.61</v>
       </c>
-      <c r="AH7" s="167" t="n">
+      <c r="AH7" s="152" t="n">
         <v>0.1</v>
       </c>
-      <c r="AI7" s="170" t="n">
+      <c r="AI7" s="147" t="n">
         <v>-11.05</v>
       </c>
-      <c r="AJ7" s="171" t="n">
+      <c r="AJ7" s="165" t="n">
         <f aca="false">-25096.3/(AC7+273) + 8.735 + 0.11*(350-1)/(AC7+273)</f>
         <v>-11.7874488124488</v>
       </c>
-      <c r="AK7" s="167" t="n">
+      <c r="AK7" s="152" t="n">
         <f aca="false">AI7-AJ7</f>
         <v>0.737448812448811</v>
       </c>
-      <c r="AL7" s="167" t="n">
+      <c r="AL7" s="152" t="n">
         <f aca="false">8*LOG10(V7)+8.7436*1000000/(AC7*AC7)-27703/AC7+20.273</f>
         <v>-2.8545197683272</v>
       </c>
-      <c r="AM7" s="167" t="n">
+      <c r="AM7" s="152" t="n">
         <f aca="false">10^(AL7)/(1+10^(AL7))</f>
         <v>0.00139596184968788</v>
       </c>
-      <c r="AN7" s="167" t="n">
+      <c r="AN7" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK7))</f>
         <v>0.191645806453881</v>
       </c>
-      <c r="AO7" s="172" t="n">
+      <c r="AO7" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP7" s="165" t="n">
+      <c r="AP7" s="141" t="n">
         <v>0.726</v>
       </c>
     </row>
-    <row r="8" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="162" t="s">
+    <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C8" s="167" t="n">
+      <c r="C8" s="152" t="n">
         <v>59.5770738409744</v>
       </c>
-      <c r="D8" s="167" t="n">
+      <c r="D8" s="152" t="n">
         <v>0.213418546570905</v>
       </c>
-      <c r="E8" s="167" t="n">
+      <c r="E8" s="152" t="n">
         <v>18.695167599039</v>
       </c>
-      <c r="F8" s="167" t="n">
+      <c r="F8" s="152" t="n">
         <v>5.68458974442139</v>
       </c>
-      <c r="G8" s="167" t="n">
+      <c r="G8" s="152" t="n">
         <v>0.238162725883474</v>
       </c>
-      <c r="H8" s="167" t="n">
+      <c r="H8" s="152" t="n">
         <v>0.315356668260184</v>
       </c>
-      <c r="I8" s="167" t="n">
+      <c r="I8" s="152" t="n">
         <v>1.2592455751682</v>
       </c>
-      <c r="J8" s="167" t="n">
+      <c r="J8" s="152" t="n">
         <v>7.70184204056748</v>
       </c>
-      <c r="K8" s="167" t="n">
+      <c r="K8" s="152" t="n">
         <v>6.13480783070544</v>
       </c>
-      <c r="L8" s="167" t="n">
+      <c r="L8" s="152" t="n">
         <v>0.156286944107957</v>
       </c>
-      <c r="M8" s="167" t="n">
+      <c r="M8" s="152" t="n">
         <v>1.78</v>
       </c>
-      <c r="N8" s="167" t="n">
+      <c r="N8" s="152" t="n">
         <v>111.35</v>
       </c>
-      <c r="O8" s="167" t="n">
+      <c r="O8" s="152" t="n">
         <v>27</v>
       </c>
-      <c r="P8" s="167" t="n">
+      <c r="P8" s="152" t="n">
         <v>1678.35</v>
       </c>
-      <c r="Q8" s="167" t="n">
+      <c r="Q8" s="152" t="n">
         <v>177</v>
       </c>
-      <c r="R8" s="167" t="n">
+      <c r="R8" s="152" t="n">
         <v>1556.85</v>
       </c>
-      <c r="S8" s="167" t="n">
+      <c r="S8" s="152" t="n">
         <v>63</v>
       </c>
-      <c r="T8" s="167" t="n">
+      <c r="T8" s="152" t="n">
         <f aca="false">(H8/40.304)/(H8/40.34+F8/71.846)*100</f>
         <v>8.99989716883334</v>
       </c>
-      <c r="U8" s="167" t="n">
+      <c r="U8" s="152" t="n">
         <v>0.27</v>
       </c>
-      <c r="V8" s="167" t="n">
+      <c r="V8" s="152" t="n">
         <f aca="false">U8/(1-U8)</f>
         <v>0.36986301369863</v>
       </c>
-      <c r="W8" s="167" t="n">
+      <c r="W8" s="152" t="n">
         <v>0.12</v>
       </c>
-      <c r="X8" s="168" t="n">
+      <c r="X8" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="169" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="169" t="n">
+      <c r="Y8" s="164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="164" t="n">
         <v>0.255842777594436</v>
       </c>
-      <c r="AA8" s="169" t="n">
+      <c r="AA8" s="164" t="n">
         <v>0.128999216530203</v>
       </c>
-      <c r="AB8" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="165" t="n">
+      <c r="AB8" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="141" t="n">
         <v>948</v>
       </c>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="162" t="s">
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="AF8" s="165" t="n">
+      <c r="AF8" s="141" t="n">
         <v>948</v>
       </c>
-      <c r="AG8" s="167" t="n">
+      <c r="AG8" s="152" t="n">
         <v>1.78</v>
       </c>
-      <c r="AH8" s="167" t="n">
+      <c r="AH8" s="152" t="n">
         <v>0.12</v>
       </c>
-      <c r="AI8" s="173" t="n">
+      <c r="AI8" s="161" t="n">
         <v>-11</v>
       </c>
-      <c r="AJ8" s="171" t="n">
+      <c r="AJ8" s="165" t="n">
         <f aca="false">-25096.3/(AC8+273) + 8.735 + 0.11*(350-1)/(AC8+273)</f>
         <v>-11.7874488124488</v>
       </c>
-      <c r="AK8" s="167" t="n">
+      <c r="AK8" s="152" t="n">
         <f aca="false">AI8-AJ8</f>
         <v>0.787448812448812</v>
       </c>
-      <c r="AL8" s="167" t="n">
+      <c r="AL8" s="152" t="n">
         <f aca="false">8*LOG10(V8)+8.7436*1000000/(AC8*AC8)-27703/AC8+20.273</f>
         <v>-2.67612556193768</v>
       </c>
-      <c r="AM8" s="167" t="n">
+      <c r="AM8" s="152" t="n">
         <f aca="false">10^(AL8)/(1+10^(AL8))</f>
         <v>0.0021035842030898</v>
       </c>
-      <c r="AN8" s="167" t="n">
+      <c r="AN8" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK8))</f>
         <v>0.229861590984904</v>
       </c>
-      <c r="AO8" s="172" t="n">
+      <c r="AO8" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP8" s="165" t="n">
+      <c r="AP8" s="141" t="n">
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" s="166" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="162" t="s">
+    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="167" t="n">
+      <c r="C9" s="152" t="n">
         <v>50.9044599440323</v>
       </c>
-      <c r="D9" s="167" t="n">
+      <c r="D9" s="152" t="n">
         <v>2.37190776141439</v>
       </c>
-      <c r="E9" s="167" t="n">
+      <c r="E9" s="152" t="n">
         <v>15.9275569184989</v>
       </c>
-      <c r="F9" s="167" t="n">
+      <c r="F9" s="152" t="n">
         <v>10.1444736785091</v>
       </c>
-      <c r="G9" s="167" t="n">
+      <c r="G9" s="152" t="n">
         <v>0.250079275242799</v>
       </c>
-      <c r="H9" s="167" t="n">
+      <c r="H9" s="152" t="n">
         <v>3.05225394451192</v>
       </c>
-      <c r="I9" s="167" t="n">
+      <c r="I9" s="152" t="n">
         <v>6.81411627354493</v>
       </c>
-      <c r="J9" s="167" t="n">
+      <c r="J9" s="152" t="n">
         <v>5.92472354957256</v>
       </c>
-      <c r="K9" s="167" t="n">
+      <c r="K9" s="152" t="n">
         <v>3.38578676727612</v>
       </c>
-      <c r="L9" s="167" t="n">
+      <c r="L9" s="152" t="n">
         <v>1.19951578559773</v>
       </c>
-      <c r="M9" s="167" t="n">
+      <c r="M9" s="152" t="n">
         <v>1.254</v>
       </c>
-      <c r="N9" s="167" t="n">
+      <c r="N9" s="152" t="n">
         <v>815.333333333334</v>
       </c>
-      <c r="O9" s="167" t="n">
+      <c r="O9" s="152" t="n">
         <v>68</v>
       </c>
-      <c r="P9" s="167" t="n">
+      <c r="P9" s="152" t="n">
         <v>1392.27777777778</v>
       </c>
-      <c r="Q9" s="167" t="n">
+      <c r="Q9" s="152" t="n">
         <v>397</v>
       </c>
-      <c r="R9" s="167" t="n">
+      <c r="R9" s="152" t="n">
         <v>1412.11111111111</v>
       </c>
-      <c r="S9" s="167" t="n">
+      <c r="S9" s="152" t="n">
         <v>111</v>
       </c>
-      <c r="T9" s="167" t="n">
+      <c r="T9" s="152" t="n">
         <f aca="false">(H9/40.304)/(H9/40.34+F9/71.846)*100</f>
         <v>34.9214034118631</v>
       </c>
-      <c r="U9" s="167" t="n">
+      <c r="U9" s="152" t="n">
         <v>0.23</v>
       </c>
-      <c r="V9" s="167" t="n">
+      <c r="V9" s="152" t="n">
         <f aca="false">U9/(1-U9)</f>
         <v>0.298701298701299</v>
       </c>
-      <c r="W9" s="167" t="n">
+      <c r="W9" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="X9" s="168" t="n">
+      <c r="X9" s="163" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="169" t="n">
+      <c r="Y9" s="164" t="n">
         <v>0.668627450980392</v>
       </c>
-      <c r="Z9" s="169" t="n">
+      <c r="Z9" s="164" t="n">
         <v>0.965124085200289</v>
       </c>
-      <c r="AA9" s="169" t="n">
+      <c r="AA9" s="164" t="n">
         <v>0.607538946338817</v>
       </c>
-      <c r="AB9" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="165" t="n">
+      <c r="AB9" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="141" t="n">
         <v>1058</v>
       </c>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="162" t="s">
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AF9" s="165" t="n">
+      <c r="AF9" s="141" t="n">
         <v>1058</v>
       </c>
-      <c r="AG9" s="167" t="n">
+      <c r="AG9" s="152" t="n">
         <v>1.254</v>
       </c>
-      <c r="AH9" s="167" t="n">
+      <c r="AH9" s="152" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI9" s="173" t="n">
+      <c r="AI9" s="161" t="n">
         <v>-9.86</v>
       </c>
-      <c r="AJ9" s="171" t="n">
+      <c r="AJ9" s="165" t="n">
         <f aca="false">-25096.3/(AC9+273) + 8.735 + 0.11*(350-1)/(AC9+273)</f>
         <v>-10.0913786626597</v>
       </c>
-      <c r="AK9" s="167" t="n">
+      <c r="AK9" s="152" t="n">
         <f aca="false">AI9-AJ9</f>
         <v>0.231378662659655</v>
       </c>
-      <c r="AL9" s="167" t="n">
+      <c r="AL9" s="152" t="n">
         <f aca="false">8*LOG10(V9)+8.7436*1000000/(AC9*AC9)-27703/AC9+20.273</f>
         <v>-2.29819176000638</v>
       </c>
-      <c r="AM9" s="167" t="n">
+      <c r="AM9" s="152" t="n">
         <f aca="false">10^(AL9)/(1+10^(AL9))</f>
         <v>0.00500758133102888</v>
       </c>
-      <c r="AN9" s="167" t="n">
+      <c r="AN9" s="152" t="n">
         <f aca="false">1/(1+10^(2.1-2*AK9))</f>
         <v>0.022535049629827</v>
       </c>
-      <c r="AO9" s="172" t="n">
+      <c r="AO9" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AP9" s="165" t="n">
+      <c r="AP9" s="141" t="n">
         <v>0.305</v>
       </c>
     </row>
@@ -32729,87 +32805,87 @@
       <c r="B10" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="C10" s="174" t="n">
+      <c r="C10" s="167" t="n">
         <v>48.4718592459989</v>
       </c>
-      <c r="D10" s="174" t="n">
+      <c r="D10" s="167" t="n">
         <v>2.5687151377664</v>
       </c>
-      <c r="E10" s="174" t="n">
+      <c r="E10" s="167" t="n">
         <v>15.2113758958387</v>
       </c>
-      <c r="F10" s="174" t="n">
+      <c r="F10" s="167" t="n">
         <v>12.1330153066879</v>
       </c>
-      <c r="G10" s="174" t="n">
+      <c r="G10" s="167" t="n">
         <v>0.26860214371401</v>
       </c>
-      <c r="H10" s="174" t="n">
+      <c r="H10" s="167" t="n">
         <v>3.85875489235247</v>
       </c>
-      <c r="I10" s="174" t="n">
+      <c r="I10" s="167" t="n">
         <v>7.44191200888285</v>
       </c>
-      <c r="J10" s="174" t="n">
+      <c r="J10" s="167" t="n">
         <v>5.22412715366372</v>
       </c>
-      <c r="K10" s="174" t="n">
+      <c r="K10" s="167" t="n">
         <v>3.15062367990398</v>
       </c>
-      <c r="L10" s="174" t="n">
+      <c r="L10" s="167" t="n">
         <v>1.66143908720465</v>
       </c>
-      <c r="M10" s="174" t="n">
+      <c r="M10" s="167" t="n">
         <v>1.137</v>
       </c>
-      <c r="N10" s="174" t="n">
+      <c r="N10" s="167" t="n">
         <v>1071.85</v>
       </c>
-      <c r="O10" s="174" t="n">
+      <c r="O10" s="167" t="n">
         <v>85</v>
       </c>
-      <c r="P10" s="174" t="n">
+      <c r="P10" s="167" t="n">
         <v>2356.65</v>
       </c>
-      <c r="Q10" s="174" t="n">
+      <c r="Q10" s="167" t="n">
         <v>405</v>
       </c>
-      <c r="R10" s="174" t="n">
+      <c r="R10" s="167" t="n">
         <v>1146.65</v>
       </c>
-      <c r="S10" s="174" t="n">
+      <c r="S10" s="167" t="n">
         <v>104</v>
       </c>
-      <c r="T10" s="174" t="n">
+      <c r="T10" s="167" t="n">
         <v>36.1928094936632</v>
       </c>
-      <c r="U10" s="174" t="n">
+      <c r="U10" s="167" t="n">
         <v>0.28</v>
       </c>
-      <c r="V10" s="174" t="n">
+      <c r="V10" s="167" t="n">
         <f aca="false">U10/(1-U10)</f>
         <v>0.388888888888889</v>
       </c>
-      <c r="W10" s="174" t="n">
+      <c r="W10" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="X10" s="175" t="n">
+      <c r="X10" s="168" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="176" t="s">
+      <c r="Y10" s="169" t="s">
         <v>996</v>
       </c>
-      <c r="Z10" s="176" t="s">
+      <c r="Z10" s="169" t="s">
         <v>997</v>
       </c>
-      <c r="AA10" s="176" t="s">
+      <c r="AA10" s="169" t="s">
         <v>998</v>
       </c>
       <c r="AB10" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="AC10" s="177" t="n">
+      <c r="AC10" s="170" t="n">
         <v>1092</v>
       </c>
       <c r="AD10" s="12" t="s">
@@ -32818,36 +32894,36 @@
       <c r="AE10" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="AF10" s="177" t="n">
+      <c r="AF10" s="170" t="n">
         <v>1092</v>
       </c>
-      <c r="AG10" s="174" t="n">
+      <c r="AG10" s="167" t="n">
         <v>1.137</v>
       </c>
-      <c r="AH10" s="174" t="n">
+      <c r="AH10" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI10" s="178" t="n">
+      <c r="AI10" s="171" t="n">
         <v>-9.41</v>
       </c>
-      <c r="AJ10" s="179" t="n">
+      <c r="AJ10" s="172" t="n">
         <f aca="false">-25096.3/(AC10+273) + 8.735 + 0.11*(350-1)/(AC10+273)</f>
         <v>-9.62244322344322</v>
       </c>
-      <c r="AK10" s="174" t="n">
+      <c r="AK10" s="167" t="n">
         <f aca="false">AI10-AJ10</f>
         <v>0.212443223443222</v>
       </c>
-      <c r="AL10" s="174" t="n">
+      <c r="AL10" s="167" t="n">
         <f aca="false">8*LOG10(V10)+8.7436*1000000/(AC10*AC10)-27703/AC10+20.273</f>
         <v>-1.04506265573098</v>
       </c>
-      <c r="AM10" s="174" t="n">
+      <c r="AM10" s="167" t="n">
         <f aca="false">10^(AL10)/(1+10^(AL10))</f>
         <v>0.0826900838889697</v>
       </c>
-      <c r="AN10" s="174"/>
-      <c r="AO10" s="180" t="n">
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -32862,87 +32938,87 @@
       <c r="B11" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="C11" s="174" t="n">
+      <c r="C11" s="167" t="n">
         <v>46.9811912956825</v>
       </c>
-      <c r="D11" s="174" t="n">
+      <c r="D11" s="167" t="n">
         <v>3.84987667784867</v>
       </c>
-      <c r="E11" s="174" t="n">
+      <c r="E11" s="167" t="n">
         <v>14.4105455908985</v>
       </c>
-      <c r="F11" s="174" t="n">
+      <c r="F11" s="167" t="n">
         <v>11.7682354256402</v>
       </c>
-      <c r="G11" s="174" t="n">
+      <c r="G11" s="167" t="n">
         <v>0.220455719219141</v>
       </c>
-      <c r="H11" s="174" t="n">
+      <c r="H11" s="167" t="n">
         <v>4.05684652448753</v>
       </c>
-      <c r="I11" s="174" t="n">
+      <c r="I11" s="167" t="n">
         <v>9.23094638552366</v>
       </c>
-      <c r="J11" s="174" t="n">
+      <c r="J11" s="167" t="n">
         <v>4.9355797853741</v>
       </c>
-      <c r="K11" s="174" t="n">
+      <c r="K11" s="167" t="n">
         <v>3.07321262487664</v>
       </c>
-      <c r="L11" s="174" t="n">
+      <c r="L11" s="167" t="n">
         <v>1.44182653277872</v>
       </c>
-      <c r="M11" s="174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="174" t="n">
+      <c r="M11" s="167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="167" t="n">
         <v>1318.05</v>
       </c>
-      <c r="O11" s="174" t="n">
+      <c r="O11" s="167" t="n">
         <v>87</v>
       </c>
-      <c r="P11" s="174" t="n">
+      <c r="P11" s="167" t="n">
         <v>1872.4</v>
       </c>
-      <c r="Q11" s="174" t="n">
+      <c r="Q11" s="167" t="n">
         <v>401</v>
       </c>
-      <c r="R11" s="174" t="n">
+      <c r="R11" s="167" t="n">
         <v>1416.55</v>
       </c>
-      <c r="S11" s="174" t="n">
+      <c r="S11" s="167" t="n">
         <v>123</v>
       </c>
-      <c r="T11" s="174" t="n">
+      <c r="T11" s="167" t="n">
         <v>38.0747833880342</v>
       </c>
-      <c r="U11" s="174" t="n">
+      <c r="U11" s="167" t="n">
         <v>0.31</v>
       </c>
-      <c r="V11" s="174" t="n">
+      <c r="V11" s="167" t="n">
         <f aca="false">U11/(1-U11)</f>
         <v>0.449275362318841</v>
       </c>
-      <c r="W11" s="174" t="n">
+      <c r="W11" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="X11" s="175" t="n">
+      <c r="X11" s="168" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="176" t="s">
+      <c r="Y11" s="169" t="s">
         <v>1001</v>
       </c>
-      <c r="Z11" s="176" t="s">
+      <c r="Z11" s="169" t="s">
         <v>1002</v>
       </c>
-      <c r="AA11" s="176" t="s">
+      <c r="AA11" s="169" t="s">
         <v>1003</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="AC11" s="177" t="n">
+      <c r="AC11" s="170" t="n">
         <v>1078</v>
       </c>
       <c r="AD11" s="12" t="s">
@@ -32951,36 +33027,36 @@
       <c r="AE11" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="AF11" s="177" t="n">
+      <c r="AF11" s="170" t="n">
         <v>1078</v>
       </c>
-      <c r="AG11" s="174" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="174" t="n">
+      <c r="AG11" s="167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI11" s="178" t="n">
+      <c r="AI11" s="171" t="n">
         <v>-9.61</v>
       </c>
-      <c r="AJ11" s="179" t="n">
+      <c r="AJ11" s="172" t="n">
         <f aca="false">-25096.3/(AC11+273) + 8.735 + 0.11*(350-1)/(AC11+273)</f>
         <v>-9.81267579570689</v>
       </c>
-      <c r="AK11" s="174" t="n">
+      <c r="AK11" s="167" t="n">
         <f aca="false">AI11-AJ11</f>
         <v>0.202675795706886</v>
       </c>
-      <c r="AL11" s="174" t="n">
+      <c r="AL11" s="167" t="n">
         <f aca="false">8*LOG10(V11)+8.7436*1000000/(AC11*AC11)-27703/AC11+20.273</f>
         <v>-0.681346117097252</v>
       </c>
-      <c r="AM11" s="174" t="n">
+      <c r="AM11" s="167" t="n">
         <f aca="false">10^(AL11)/(1+10^(AL11))</f>
         <v>0.1723793376391</v>
       </c>
-      <c r="AN11" s="174"/>
-      <c r="AO11" s="180" t="n">
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -32995,87 +33071,87 @@
       <c r="B12" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="C12" s="174" t="n">
+      <c r="C12" s="167" t="n">
         <v>48.3213319927627</v>
       </c>
-      <c r="D12" s="174" t="n">
+      <c r="D12" s="167" t="n">
         <v>2.61797610435395</v>
       </c>
-      <c r="E12" s="174" t="n">
+      <c r="E12" s="167" t="n">
         <v>15.169159305811</v>
       </c>
-      <c r="F12" s="174" t="n">
+      <c r="F12" s="167" t="n">
         <v>11.9532938481646</v>
       </c>
-      <c r="G12" s="174" t="n">
+      <c r="G12" s="167" t="n">
         <v>0.28535692316485</v>
       </c>
-      <c r="H12" s="174" t="n">
+      <c r="H12" s="167" t="n">
         <v>3.89655973685913</v>
       </c>
-      <c r="I12" s="174" t="n">
+      <c r="I12" s="167" t="n">
         <v>7.45071372600923</v>
       </c>
-      <c r="J12" s="174" t="n">
+      <c r="J12" s="167" t="n">
         <v>5.31706512796835</v>
       </c>
-      <c r="K12" s="174" t="n">
+      <c r="K12" s="167" t="n">
         <v>3.39999338237395</v>
       </c>
-      <c r="L12" s="174" t="n">
+      <c r="L12" s="167" t="n">
         <v>1.57021038034806</v>
       </c>
-      <c r="M12" s="174" t="n">
+      <c r="M12" s="167" t="n">
         <v>0.7329</v>
       </c>
-      <c r="N12" s="174" t="n">
+      <c r="N12" s="167" t="n">
         <v>642.9</v>
       </c>
-      <c r="O12" s="174" t="n">
+      <c r="O12" s="167" t="n">
         <v>58</v>
       </c>
-      <c r="P12" s="174" t="n">
+      <c r="P12" s="167" t="n">
         <v>1477.65</v>
       </c>
-      <c r="Q12" s="174" t="n">
+      <c r="Q12" s="167" t="n">
         <v>383</v>
       </c>
-      <c r="R12" s="174" t="n">
+      <c r="R12" s="167" t="n">
         <v>1774.4</v>
       </c>
-      <c r="S12" s="174" t="n">
+      <c r="S12" s="167" t="n">
         <v>102</v>
       </c>
-      <c r="T12" s="174" t="n">
+      <c r="T12" s="167" t="n">
         <v>36.7648080088544</v>
       </c>
-      <c r="U12" s="174" t="n">
+      <c r="U12" s="167" t="n">
         <v>0.29</v>
       </c>
-      <c r="V12" s="174" t="n">
+      <c r="V12" s="167" t="n">
         <f aca="false">U12/(1-U12)</f>
         <v>0.408450704225352</v>
       </c>
-      <c r="W12" s="174" t="n">
+      <c r="W12" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="X12" s="175" t="n">
+      <c r="X12" s="168" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="176" t="s">
+      <c r="Y12" s="169" t="s">
         <v>1004</v>
       </c>
-      <c r="Z12" s="176" t="s">
+      <c r="Z12" s="169" t="s">
         <v>1005</v>
       </c>
-      <c r="AA12" s="176" t="s">
+      <c r="AA12" s="169" t="s">
         <v>1006</v>
       </c>
       <c r="AB12" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="AC12" s="177" t="n">
+      <c r="AC12" s="170" t="n">
         <v>1114</v>
       </c>
       <c r="AD12" s="12" t="s">
@@ -33084,36 +33160,36 @@
       <c r="AE12" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="AF12" s="177" t="n">
+      <c r="AF12" s="170" t="n">
         <v>1114</v>
       </c>
-      <c r="AG12" s="174" t="n">
+      <c r="AG12" s="167" t="n">
         <v>0.7329</v>
       </c>
-      <c r="AH12" s="174" t="n">
+      <c r="AH12" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI12" s="178" t="n">
+      <c r="AI12" s="171" t="n">
         <v>-9.19</v>
       </c>
-      <c r="AJ12" s="179" t="n">
+      <c r="AJ12" s="172" t="n">
         <f aca="false">-25096.3/(AC12+273) + 8.735 + 0.11*(350-1)/(AC12+273)</f>
         <v>-9.33126532083634</v>
       </c>
-      <c r="AK12" s="174" t="n">
+      <c r="AK12" s="167" t="n">
         <f aca="false">AI12-AJ12</f>
         <v>0.141265320836339</v>
       </c>
-      <c r="AL12" s="174" t="n">
+      <c r="AL12" s="167" t="n">
         <f aca="false">8*LOG10(V12)+8.7436*1000000/(AC12*AC12)-27703/AC12+20.273</f>
         <v>-0.6602948046657</v>
       </c>
-      <c r="AM12" s="174" t="n">
+      <c r="AM12" s="167" t="n">
         <f aca="false">10^(AL12)/(1+10^(AL12))</f>
         <v>0.179404836994331</v>
       </c>
-      <c r="AN12" s="174"/>
-      <c r="AO12" s="180" t="n">
+      <c r="AN12" s="167"/>
+      <c r="AO12" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -33128,87 +33204,87 @@
       <c r="B13" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="C13" s="174" t="n">
+      <c r="C13" s="167" t="n">
         <v>45.3901379346064</v>
       </c>
-      <c r="D13" s="174" t="n">
+      <c r="D13" s="167" t="n">
         <v>3.40834223851511</v>
       </c>
-      <c r="E13" s="174" t="n">
+      <c r="E13" s="167" t="n">
         <v>15.9188984583913</v>
       </c>
-      <c r="F13" s="174" t="n">
+      <c r="F13" s="167" t="n">
         <v>11.9256519580321</v>
       </c>
-      <c r="G13" s="174" t="n">
+      <c r="G13" s="167" t="n">
         <v>0.205619501371159</v>
       </c>
-      <c r="H13" s="174" t="n">
+      <c r="H13" s="167" t="n">
         <v>4.52573794812827</v>
       </c>
-      <c r="I13" s="174" t="n">
+      <c r="I13" s="167" t="n">
         <v>11.3584564043755</v>
       </c>
-      <c r="J13" s="174" t="n">
+      <c r="J13" s="167" t="n">
         <v>3.9351065267186</v>
       </c>
-      <c r="K13" s="174" t="n">
+      <c r="K13" s="167" t="n">
         <v>2.35671582340789</v>
       </c>
-      <c r="L13" s="174" t="n">
+      <c r="L13" s="167" t="n">
         <v>0.962783077008483</v>
       </c>
-      <c r="M13" s="174" t="n">
+      <c r="M13" s="167" t="n">
         <v>0.8787</v>
       </c>
-      <c r="N13" s="174" t="n">
+      <c r="N13" s="167" t="n">
         <v>918.05</v>
       </c>
-      <c r="O13" s="174" t="n">
+      <c r="O13" s="167" t="n">
         <v>67</v>
       </c>
-      <c r="P13" s="174" t="n">
+      <c r="P13" s="167" t="n">
         <v>1437.2</v>
       </c>
-      <c r="Q13" s="174" t="n">
+      <c r="Q13" s="167" t="n">
         <v>317</v>
       </c>
-      <c r="R13" s="174" t="n">
+      <c r="R13" s="167" t="n">
         <v>1293.8</v>
       </c>
-      <c r="S13" s="174" t="n">
+      <c r="S13" s="167" t="n">
         <v>123</v>
       </c>
-      <c r="T13" s="174" t="n">
+      <c r="T13" s="167" t="n">
         <v>40.3661224369324</v>
       </c>
-      <c r="U13" s="174" t="n">
+      <c r="U13" s="167" t="n">
         <v>0.51</v>
       </c>
-      <c r="V13" s="174" t="n">
+      <c r="V13" s="167" t="n">
         <f aca="false">U13/(1-U13)</f>
         <v>1.04081632653061</v>
       </c>
-      <c r="W13" s="174" t="n">
+      <c r="W13" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="X13" s="175" t="n">
+      <c r="X13" s="168" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="176" t="s">
+      <c r="Y13" s="169" t="s">
         <v>999</v>
       </c>
-      <c r="Z13" s="176" t="s">
+      <c r="Z13" s="169" t="s">
         <v>1007</v>
       </c>
-      <c r="AA13" s="176" t="s">
+      <c r="AA13" s="169" t="s">
         <v>1008</v>
       </c>
       <c r="AB13" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="AC13" s="177" t="n">
+      <c r="AC13" s="170" t="n">
         <v>1086</v>
       </c>
       <c r="AD13" s="12" t="s">
@@ -33217,36 +33293,36 @@
       <c r="AE13" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="AF13" s="177" t="n">
+      <c r="AF13" s="170" t="n">
         <v>1086</v>
       </c>
-      <c r="AG13" s="174" t="n">
+      <c r="AG13" s="167" t="n">
         <v>0.8787</v>
       </c>
-      <c r="AH13" s="174" t="n">
+      <c r="AH13" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI13" s="178" t="n">
+      <c r="AI13" s="171" t="n">
         <v>-9.67</v>
       </c>
-      <c r="AJ13" s="179" t="n">
+      <c r="AJ13" s="172" t="n">
         <f aca="false">-25096.3/(AC13+273) + 8.735 + 0.11*(350-1)/(AC13+273)</f>
         <v>-9.70349153789551</v>
       </c>
-      <c r="AK13" s="174" t="n">
+      <c r="AK13" s="167" t="n">
         <f aca="false">AI13-AJ13</f>
         <v>0.0334915378955092</v>
       </c>
-      <c r="AL13" s="174" t="n">
+      <c r="AL13" s="167" t="n">
         <f aca="false">8*LOG10(V13)+8.7436*1000000/(AC13*AC13)-27703/AC13+20.273</f>
         <v>2.31640994480492</v>
       </c>
-      <c r="AM13" s="174" t="n">
+      <c r="AM13" s="167" t="n">
         <f aca="false">10^(AL13)/(1+10^(AL13))</f>
         <v>0.995197148287165</v>
       </c>
-      <c r="AN13" s="174"/>
-      <c r="AO13" s="180" t="n">
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="166" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33261,87 +33337,87 @@
       <c r="B14" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="C14" s="174" t="n">
+      <c r="C14" s="167" t="n">
         <v>56.0945156385155</v>
       </c>
-      <c r="D14" s="174" t="n">
+      <c r="D14" s="167" t="n">
         <v>1.15385520794542</v>
       </c>
-      <c r="E14" s="174" t="n">
+      <c r="E14" s="167" t="n">
         <v>17.8105819095124</v>
       </c>
-      <c r="F14" s="174" t="n">
+      <c r="F14" s="167" t="n">
         <v>7.91095740893473</v>
       </c>
-      <c r="G14" s="174" t="n">
+      <c r="G14" s="167" t="n">
         <v>0.19750301024869</v>
       </c>
-      <c r="H14" s="174" t="n">
+      <c r="H14" s="167" t="n">
         <v>1.44796824935592</v>
       </c>
-      <c r="I14" s="174" t="n">
+      <c r="I14" s="167" t="n">
         <v>3.87876415900584</v>
       </c>
-      <c r="J14" s="174" t="n">
+      <c r="J14" s="167" t="n">
         <v>6.76298218034405</v>
       </c>
-      <c r="K14" s="174" t="n">
+      <c r="K14" s="167" t="n">
         <v>4.25733320017825</v>
       </c>
-      <c r="L14" s="174" t="n">
+      <c r="L14" s="167" t="n">
         <v>0.465493180416537</v>
       </c>
-      <c r="M14" s="174" t="n">
+      <c r="M14" s="167" t="n">
         <v>1.53</v>
       </c>
-      <c r="N14" s="174" t="n">
+      <c r="N14" s="167" t="n">
         <v>393.35</v>
       </c>
-      <c r="O14" s="174" t="n">
+      <c r="O14" s="167" t="n">
         <v>71</v>
       </c>
-      <c r="P14" s="174" t="n">
+      <c r="P14" s="167" t="n">
         <v>1230.65</v>
       </c>
-      <c r="Q14" s="174" t="n">
+      <c r="Q14" s="167" t="n">
         <v>386</v>
       </c>
-      <c r="R14" s="174" t="n">
+      <c r="R14" s="167" t="n">
         <v>1240.3</v>
       </c>
-      <c r="S14" s="174" t="n">
+      <c r="S14" s="167" t="n">
         <v>84</v>
       </c>
-      <c r="T14" s="174" t="n">
+      <c r="T14" s="167" t="n">
         <v>24.6062851375287</v>
       </c>
-      <c r="U14" s="174" t="n">
+      <c r="U14" s="167" t="n">
         <v>0.19</v>
       </c>
-      <c r="V14" s="174" t="n">
+      <c r="V14" s="167" t="n">
         <f aca="false">U14/(1-U14)</f>
         <v>0.234567901234568</v>
       </c>
-      <c r="W14" s="174" t="n">
+      <c r="W14" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="X14" s="175" t="n">
+      <c r="X14" s="168" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="176" t="s">
+      <c r="Y14" s="169" t="s">
         <v>1009</v>
       </c>
-      <c r="Z14" s="176" t="s">
+      <c r="Z14" s="169" t="s">
         <v>1010</v>
       </c>
-      <c r="AA14" s="176" t="s">
+      <c r="AA14" s="169" t="s">
         <v>1002</v>
       </c>
       <c r="AB14" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="AC14" s="177" t="n">
+      <c r="AC14" s="170" t="n">
         <v>997</v>
       </c>
       <c r="AD14" s="12" t="s">
@@ -33350,36 +33426,36 @@
       <c r="AE14" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="AF14" s="177" t="n">
+      <c r="AF14" s="170" t="n">
         <v>997</v>
       </c>
-      <c r="AG14" s="174" t="n">
+      <c r="AG14" s="167" t="n">
         <v>1.53</v>
       </c>
-      <c r="AH14" s="174" t="n">
+      <c r="AH14" s="167" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI14" s="178" t="n">
+      <c r="AI14" s="171" t="n">
         <v>-10.63</v>
       </c>
-      <c r="AJ14" s="179" t="n">
+      <c r="AJ14" s="172" t="n">
         <f aca="false">-25096.3/(AC14+273) + 8.735 + 0.11*(350-1)/(AC14+273)</f>
         <v>-10.9956377952756</v>
       </c>
-      <c r="AK14" s="174" t="n">
+      <c r="AK14" s="167" t="n">
         <f aca="false">AI14-AJ14</f>
         <v>0.365637795275589</v>
       </c>
-      <c r="AL14" s="174" t="n">
+      <c r="AL14" s="167" t="n">
         <f aca="false">8*LOG10(V14)+8.7436*1000000/(AC14*AC14)-27703/AC14+20.273</f>
         <v>-3.75491179557551</v>
       </c>
-      <c r="AM14" s="174" t="n">
+      <c r="AM14" s="167" t="n">
         <f aca="false">10^(AL14)/(1+10^(AL14))</f>
         <v>0.000175797158057986</v>
       </c>
-      <c r="AN14" s="174"/>
-      <c r="AO14" s="180" t="n">
+      <c r="AN14" s="167"/>
+      <c r="AO14" s="166" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
